--- a/meta/icmr.xlsx
+++ b/meta/icmr.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bbdaniels/Box/covid-punjab/meta/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bbdaniels/GitHub/covid-punjab/meta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC80D439-0D6B-5F46-AC6A-59968ED176A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C63F3C2-E23B-D144-8217-035A0FC6A48D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="40960" windowHeight="22580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,12 +17,22 @@
     <sheet name="choices" sheetId="2" r:id="rId2"/>
     <sheet name="choices_current" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="468">
   <si>
     <t>name</t>
   </si>
@@ -477,132 +487,27 @@
     <t/>
   </si>
   <si>
-    <t>IcmrID</t>
-  </si>
-  <si>
-    <t>SRFID</t>
-  </si>
-  <si>
-    <t>LaboratoryName</t>
-  </si>
-  <si>
-    <t>PatientID</t>
-  </si>
-  <si>
-    <t>PatientName</t>
-  </si>
-  <si>
     <t>Age</t>
   </si>
   <si>
-    <t>AgeIn</t>
-  </si>
-  <si>
     <t>Gender</t>
   </si>
   <si>
-    <t>ContactNumber</t>
-  </si>
-  <si>
-    <t>ContactNumberBelongsTo</t>
-  </si>
-  <si>
     <t>Email</t>
   </si>
   <si>
     <t>Nationality</t>
   </si>
   <si>
-    <t>AadharCardNumber</t>
-  </si>
-  <si>
-    <t>PassportNumber</t>
-  </si>
-  <si>
-    <t>StateofResidence</t>
-  </si>
-  <si>
-    <t>DistrictofResidence</t>
-  </si>
-  <si>
     <t>Address</t>
   </si>
   <si>
-    <t>VillageTown</t>
-  </si>
-  <si>
-    <t>PinCode</t>
-  </si>
-  <si>
-    <t>PatientCategory</t>
-  </si>
-  <si>
-    <t>Wasthepatientquarantined</t>
-  </si>
-  <si>
-    <t>Wherewereyouquarantined</t>
-  </si>
-  <si>
-    <t>DateofarrivalinIndia</t>
-  </si>
-  <si>
-    <t>Didyoutraveltoforeigncountr</t>
-  </si>
-  <si>
-    <t>PlaceofTravel</t>
-  </si>
-  <si>
-    <t>RespiratoryInfectionSari</t>
-  </si>
-  <si>
-    <t>RespiratoryInfectionInfluenza</t>
-  </si>
-  <si>
-    <t>Areyouahealthcareworkerinvo</t>
-  </si>
-  <si>
-    <t>SampleType</t>
-  </si>
-  <si>
-    <t>SampleID</t>
-  </si>
-  <si>
-    <t>UnderlyingMedicalCondition</t>
-  </si>
-  <si>
     <t>Hospitalized</t>
   </si>
   <si>
-    <t>HospitalName</t>
-  </si>
-  <si>
-    <t>HospitalizationDate</t>
-  </si>
-  <si>
-    <t>HospitalState</t>
-  </si>
-  <si>
-    <t>HospitalDistrict</t>
-  </si>
-  <si>
-    <t>DoctorName</t>
-  </si>
-  <si>
-    <t>DoctorMobile</t>
-  </si>
-  <si>
-    <t>DoctorEmail</t>
-  </si>
-  <si>
-    <t>SymptomsStatus</t>
-  </si>
-  <si>
     <t>symptoms</t>
   </si>
   <si>
-    <t>TestingKitUsed</t>
-  </si>
-  <si>
     <t>Egene</t>
   </si>
   <si>
@@ -612,39 +517,21 @@
     <t>ORF1B</t>
   </si>
   <si>
-    <t>InfluenzaA</t>
-  </si>
-  <si>
-    <t>InfluenzaB</t>
-  </si>
-  <si>
     <t>Parainfluenza</t>
   </si>
   <si>
     <t>RSV</t>
   </si>
   <si>
-    <t>HumanMetapneumovirus</t>
-  </si>
-  <si>
     <t>Adenovirus</t>
   </si>
   <si>
     <t>Rhinovirus</t>
   </si>
   <si>
-    <t>RepeatSample</t>
-  </si>
-  <si>
-    <t>FinalResultSample</t>
-  </si>
-  <si>
     <t>Remarks</t>
   </si>
   <si>
-    <t>DateofSampleCollection_1</t>
-  </si>
-  <si>
     <t>TimeofSampleCollection</t>
   </si>
   <si>
@@ -654,15 +541,9 @@
     <t>TimeSampleReceived</t>
   </si>
   <si>
-    <t>DateofSampleTested_1</t>
-  </si>
-  <si>
     <t>TimeSampleTested</t>
   </si>
   <si>
-    <t>ConfirmationDate_1</t>
-  </si>
-  <si>
     <t>ConfirmationDate_Time</t>
   </si>
   <si>
@@ -876,195 +757,6 @@
     <t/>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>recode:current</t>
   </si>
   <si>
@@ -1597,6 +1289,153 @@
   </si>
   <si>
     <t>Date of Sample Tested</t>
+  </si>
+  <si>
+    <t>icmrid</t>
+  </si>
+  <si>
+    <t>srfid</t>
+  </si>
+  <si>
+    <t>laboratoryname</t>
+  </si>
+  <si>
+    <t>patientid</t>
+  </si>
+  <si>
+    <t>patientname</t>
+  </si>
+  <si>
+    <t>agein</t>
+  </si>
+  <si>
+    <t>contactnumber</t>
+  </si>
+  <si>
+    <t>contactnumberbelongsto</t>
+  </si>
+  <si>
+    <t>aadharcardnumber</t>
+  </si>
+  <si>
+    <t>passportnumber</t>
+  </si>
+  <si>
+    <t>stateofresidence</t>
+  </si>
+  <si>
+    <t>districtofresidence</t>
+  </si>
+  <si>
+    <t>villagetown</t>
+  </si>
+  <si>
+    <t>pincode</t>
+  </si>
+  <si>
+    <t>patientcategory</t>
+  </si>
+  <si>
+    <t>wasthepatientquarantined</t>
+  </si>
+  <si>
+    <t>wherewereyouquarantined</t>
+  </si>
+  <si>
+    <t>dateofarrivalinindia</t>
+  </si>
+  <si>
+    <t>placeoftravel</t>
+  </si>
+  <si>
+    <t>respiratoryinfectionsari</t>
+  </si>
+  <si>
+    <t>sampletype</t>
+  </si>
+  <si>
+    <t>sampleid</t>
+  </si>
+  <si>
+    <t>underlyingmedicalcondition</t>
+  </si>
+  <si>
+    <t>hospitalized</t>
+  </si>
+  <si>
+    <t>hospitalname</t>
+  </si>
+  <si>
+    <t>hospitalizationdate</t>
+  </si>
+  <si>
+    <t>hospitalstate</t>
+  </si>
+  <si>
+    <t>hospitaldistrict</t>
+  </si>
+  <si>
+    <t>doctorname</t>
+  </si>
+  <si>
+    <t>doctormobile</t>
+  </si>
+  <si>
+    <t>doctoremail</t>
+  </si>
+  <si>
+    <t>symptomsstatus</t>
+  </si>
+  <si>
+    <t>testingkitused</t>
+  </si>
+  <si>
+    <t>influenzaa</t>
+  </si>
+  <si>
+    <t>influenzab</t>
+  </si>
+  <si>
+    <t>humanmetapneumovirus</t>
+  </si>
+  <si>
+    <t>repeatsample</t>
+  </si>
+  <si>
+    <t>finalresultsample</t>
+  </si>
+  <si>
+    <t>dateofsamplecollection_1</t>
+  </si>
+  <si>
+    <t>timeofsamplecollection</t>
+  </si>
+  <si>
+    <t>dateofsamplereceived_1</t>
+  </si>
+  <si>
+    <t>timesamplereceived</t>
+  </si>
+  <si>
+    <t>dateofsampletested_1</t>
+  </si>
+  <si>
+    <t>timesampletested</t>
+  </si>
+  <si>
+    <t>confirmationdate_1</t>
+  </si>
+  <si>
+    <t>confirmationdate_time</t>
+  </si>
+  <si>
+    <t>didyoutraveltoforeigncountryinla</t>
+  </si>
+  <si>
+    <t>respiratoryinfectioninfluenzalik</t>
+  </si>
+  <si>
+    <t>areyouahealthcareworkerinvolvedi</t>
   </si>
 </sst>
 </file>
@@ -1951,7 +1790,7 @@
   <dimension ref="A1:I65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1984,16 +1823,16 @@
         <v>149</v>
       </c>
       <c r="F1" t="s">
-        <v>214</v>
+        <v>171</v>
       </c>
       <c r="G1" t="s">
-        <v>231</v>
+        <v>188</v>
       </c>
       <c r="H1" t="s">
-        <v>282</v>
+        <v>239</v>
       </c>
       <c r="I1" t="s">
-        <v>347</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -2013,24 +1852,24 @@
         <v>150</v>
       </c>
       <c r="F2" t="s">
-        <v>215</v>
+        <v>172</v>
       </c>
       <c r="G2" t="s">
-        <v>232</v>
+        <v>189</v>
       </c>
       <c r="H2" t="s">
-        <v>283</v>
+        <v>240</v>
       </c>
       <c r="I2" t="s">
-        <v>348</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>466</v>
+        <v>360</v>
       </c>
       <c r="B3" t="s">
-        <v>418</v>
+        <v>312</v>
       </c>
       <c r="C3" t="s">
         <v>21</v>
@@ -2039,27 +1878,24 @@
         <v>86</v>
       </c>
       <c r="E3" t="s">
-        <v>151</v>
+        <v>419</v>
       </c>
       <c r="F3" t="s">
-        <v>418</v>
+        <v>312</v>
       </c>
       <c r="G3" t="s">
-        <v>233</v>
-      </c>
-      <c r="H3" t="s">
-        <v>284</v>
+        <v>190</v>
       </c>
       <c r="I3" t="s">
-        <v>349</v>
+        <v>243</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>467</v>
+        <v>361</v>
       </c>
       <c r="B4" t="s">
-        <v>419</v>
+        <v>313</v>
       </c>
       <c r="C4" t="s">
         <v>22</v>
@@ -2068,27 +1904,24 @@
         <v>87</v>
       </c>
       <c r="E4" t="s">
-        <v>152</v>
+        <v>420</v>
       </c>
       <c r="F4" t="s">
-        <v>419</v>
+        <v>313</v>
       </c>
       <c r="G4" t="s">
-        <v>234</v>
-      </c>
-      <c r="H4" t="s">
-        <v>285</v>
+        <v>191</v>
       </c>
       <c r="I4" t="s">
-        <v>350</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>468</v>
+        <v>362</v>
       </c>
       <c r="B5" t="s">
-        <v>420</v>
+        <v>314</v>
       </c>
       <c r="C5" t="s">
         <v>23</v>
@@ -2097,27 +1930,24 @@
         <v>88</v>
       </c>
       <c r="E5" t="s">
-        <v>153</v>
+        <v>421</v>
       </c>
       <c r="F5" t="s">
-        <v>420</v>
+        <v>314</v>
       </c>
       <c r="G5" t="s">
-        <v>235</v>
-      </c>
-      <c r="H5" t="s">
-        <v>286</v>
+        <v>192</v>
       </c>
       <c r="I5" t="s">
-        <v>351</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>469</v>
+        <v>363</v>
       </c>
       <c r="B6" t="s">
-        <v>421</v>
+        <v>315</v>
       </c>
       <c r="C6" t="s">
         <v>24</v>
@@ -2126,19 +1956,16 @@
         <v>89</v>
       </c>
       <c r="E6" t="s">
-        <v>154</v>
+        <v>422</v>
       </c>
       <c r="F6" t="s">
-        <v>421</v>
+        <v>315</v>
       </c>
       <c r="G6" t="s">
-        <v>236</v>
-      </c>
-      <c r="H6" t="s">
-        <v>287</v>
+        <v>193</v>
       </c>
       <c r="I6" t="s">
-        <v>352</v>
+        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -2146,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>422</v>
+        <v>316</v>
       </c>
       <c r="C7" t="s">
         <v>25</v>
@@ -2155,27 +1982,24 @@
         <v>90</v>
       </c>
       <c r="E7" t="s">
-        <v>155</v>
+        <v>423</v>
       </c>
       <c r="F7" t="s">
-        <v>422</v>
+        <v>316</v>
       </c>
       <c r="G7" t="s">
-        <v>237</v>
-      </c>
-      <c r="H7" t="s">
-        <v>288</v>
+        <v>194</v>
       </c>
       <c r="I7" t="s">
-        <v>353</v>
+        <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>470</v>
+        <v>364</v>
       </c>
       <c r="B8" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C8" t="s">
         <v>26</v>
@@ -2184,27 +2008,24 @@
         <v>91</v>
       </c>
       <c r="E8" t="s">
-        <v>156</v>
+        <v>364</v>
       </c>
       <c r="F8" t="s">
-        <v>216</v>
+        <v>173</v>
       </c>
       <c r="G8" t="s">
-        <v>238</v>
-      </c>
-      <c r="H8" t="s">
-        <v>289</v>
+        <v>195</v>
       </c>
       <c r="I8" t="s">
-        <v>354</v>
+        <v>248</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>471</v>
+        <v>365</v>
       </c>
       <c r="B9" t="s">
-        <v>423</v>
+        <v>317</v>
       </c>
       <c r="C9" t="s">
         <v>27</v>
@@ -2213,27 +2034,24 @@
         <v>92</v>
       </c>
       <c r="E9" t="s">
-        <v>157</v>
+        <v>424</v>
       </c>
       <c r="F9" t="s">
-        <v>423</v>
+        <v>317</v>
       </c>
       <c r="G9" t="s">
-        <v>239</v>
-      </c>
-      <c r="H9" t="s">
-        <v>290</v>
+        <v>196</v>
       </c>
       <c r="I9" t="s">
-        <v>355</v>
+        <v>249</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>472</v>
+        <v>366</v>
       </c>
       <c r="B10" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -2242,27 +2060,24 @@
         <v>93</v>
       </c>
       <c r="E10" t="s">
-        <v>158</v>
+        <v>366</v>
       </c>
       <c r="F10" t="s">
-        <v>217</v>
+        <v>174</v>
       </c>
       <c r="G10" t="s">
-        <v>240</v>
-      </c>
-      <c r="H10" t="s">
-        <v>291</v>
+        <v>197</v>
       </c>
       <c r="I10" t="s">
-        <v>356</v>
+        <v>250</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>474</v>
+        <v>368</v>
       </c>
       <c r="B11" t="s">
-        <v>424</v>
+        <v>318</v>
       </c>
       <c r="C11" t="s">
         <v>29</v>
@@ -2271,27 +2086,24 @@
         <v>94</v>
       </c>
       <c r="E11" t="s">
-        <v>159</v>
+        <v>425</v>
       </c>
       <c r="F11" t="s">
-        <v>424</v>
+        <v>318</v>
       </c>
       <c r="G11" t="s">
-        <v>241</v>
-      </c>
-      <c r="H11" t="s">
-        <v>292</v>
+        <v>198</v>
       </c>
       <c r="I11" t="s">
-        <v>357</v>
+        <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>473</v>
+        <v>367</v>
       </c>
       <c r="B12" t="s">
-        <v>425</v>
+        <v>319</v>
       </c>
       <c r="C12" t="s">
         <v>30</v>
@@ -2300,27 +2112,24 @@
         <v>95</v>
       </c>
       <c r="E12" t="s">
-        <v>160</v>
+        <v>426</v>
       </c>
       <c r="F12" t="s">
-        <v>425</v>
+        <v>319</v>
       </c>
       <c r="G12" t="s">
-        <v>242</v>
-      </c>
-      <c r="H12" t="s">
-        <v>293</v>
+        <v>199</v>
       </c>
       <c r="I12" t="s">
-        <v>358</v>
+        <v>252</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>475</v>
+        <v>369</v>
       </c>
       <c r="B13" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C13" t="s">
         <v>31</v>
@@ -2329,27 +2138,24 @@
         <v>96</v>
       </c>
       <c r="E13" t="s">
-        <v>161</v>
+        <v>369</v>
       </c>
       <c r="F13" t="s">
-        <v>218</v>
+        <v>175</v>
       </c>
       <c r="G13" t="s">
-        <v>243</v>
-      </c>
-      <c r="H13" t="s">
-        <v>294</v>
+        <v>200</v>
       </c>
       <c r="I13" t="s">
-        <v>359</v>
+        <v>253</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>476</v>
+        <v>370</v>
       </c>
       <c r="B14" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C14" t="s">
         <v>32</v>
@@ -2358,27 +2164,24 @@
         <v>97</v>
       </c>
       <c r="E14" t="s">
-        <v>162</v>
+        <v>370</v>
       </c>
       <c r="F14" t="s">
-        <v>219</v>
+        <v>176</v>
       </c>
       <c r="G14" t="s">
-        <v>244</v>
-      </c>
-      <c r="H14" t="s">
-        <v>295</v>
+        <v>201</v>
       </c>
       <c r="I14" t="s">
-        <v>360</v>
+        <v>254</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>477</v>
+        <v>371</v>
       </c>
       <c r="B15" t="s">
-        <v>426</v>
+        <v>320</v>
       </c>
       <c r="C15" t="s">
         <v>33</v>
@@ -2387,27 +2190,24 @@
         <v>98</v>
       </c>
       <c r="E15" t="s">
-        <v>163</v>
+        <v>427</v>
       </c>
       <c r="F15" t="s">
-        <v>426</v>
+        <v>320</v>
       </c>
       <c r="G15" t="s">
-        <v>245</v>
-      </c>
-      <c r="H15" t="s">
-        <v>296</v>
+        <v>202</v>
       </c>
       <c r="I15" t="s">
-        <v>361</v>
+        <v>255</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>478</v>
+        <v>372</v>
       </c>
       <c r="B16" t="s">
-        <v>427</v>
+        <v>321</v>
       </c>
       <c r="C16" t="s">
         <v>34</v>
@@ -2416,27 +2216,24 @@
         <v>99</v>
       </c>
       <c r="E16" t="s">
-        <v>164</v>
+        <v>428</v>
       </c>
       <c r="F16" t="s">
-        <v>427</v>
+        <v>321</v>
       </c>
       <c r="G16" t="s">
-        <v>245</v>
-      </c>
-      <c r="H16" t="s">
-        <v>297</v>
+        <v>202</v>
       </c>
       <c r="I16" t="s">
-        <v>362</v>
+        <v>256</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>479</v>
+        <v>373</v>
       </c>
       <c r="B17" t="s">
-        <v>428</v>
+        <v>322</v>
       </c>
       <c r="C17" t="s">
         <v>35</v>
@@ -2445,27 +2242,24 @@
         <v>100</v>
       </c>
       <c r="E17" t="s">
-        <v>165</v>
+        <v>429</v>
       </c>
       <c r="F17" t="s">
-        <v>428</v>
+        <v>322</v>
       </c>
       <c r="G17" t="s">
-        <v>246</v>
-      </c>
-      <c r="H17" t="s">
-        <v>298</v>
+        <v>203</v>
       </c>
       <c r="I17" t="s">
-        <v>363</v>
+        <v>257</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>480</v>
+        <v>374</v>
       </c>
       <c r="B18" t="s">
-        <v>429</v>
+        <v>323</v>
       </c>
       <c r="C18" t="s">
         <v>36</v>
@@ -2474,27 +2268,24 @@
         <v>101</v>
       </c>
       <c r="E18" t="s">
-        <v>166</v>
+        <v>430</v>
       </c>
       <c r="F18" t="s">
-        <v>429</v>
+        <v>323</v>
       </c>
       <c r="G18" t="s">
-        <v>247</v>
-      </c>
-      <c r="H18" t="s">
-        <v>299</v>
+        <v>204</v>
       </c>
       <c r="I18" t="s">
-        <v>364</v>
+        <v>258</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>481</v>
+        <v>375</v>
       </c>
       <c r="B19" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="C19" t="s">
         <v>37</v>
@@ -2503,27 +2294,24 @@
         <v>102</v>
       </c>
       <c r="E19" t="s">
-        <v>167</v>
+        <v>375</v>
       </c>
       <c r="F19" t="s">
-        <v>220</v>
+        <v>177</v>
       </c>
       <c r="G19" t="s">
-        <v>248</v>
-      </c>
-      <c r="H19" t="s">
-        <v>300</v>
+        <v>205</v>
       </c>
       <c r="I19" t="s">
-        <v>365</v>
+        <v>259</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>482</v>
+        <v>376</v>
       </c>
       <c r="B20" t="s">
-        <v>430</v>
+        <v>324</v>
       </c>
       <c r="C20" t="s">
         <v>38</v>
@@ -2532,27 +2320,24 @@
         <v>103</v>
       </c>
       <c r="E20" t="s">
-        <v>168</v>
+        <v>431</v>
       </c>
       <c r="F20" t="s">
-        <v>430</v>
+        <v>324</v>
       </c>
       <c r="G20" t="s">
-        <v>249</v>
-      </c>
-      <c r="H20" t="s">
-        <v>301</v>
+        <v>206</v>
       </c>
       <c r="I20" t="s">
-        <v>366</v>
+        <v>260</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>483</v>
+        <v>377</v>
       </c>
       <c r="B21" t="s">
-        <v>431</v>
+        <v>325</v>
       </c>
       <c r="C21" t="s">
         <v>39</v>
@@ -2561,27 +2346,24 @@
         <v>104</v>
       </c>
       <c r="E21" t="s">
-        <v>169</v>
+        <v>432</v>
       </c>
       <c r="F21" t="s">
-        <v>431</v>
+        <v>325</v>
       </c>
       <c r="G21" t="s">
-        <v>250</v>
-      </c>
-      <c r="H21" t="s">
-        <v>302</v>
+        <v>207</v>
       </c>
       <c r="I21" t="s">
-        <v>367</v>
+        <v>261</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>484</v>
+        <v>378</v>
       </c>
       <c r="B22" t="s">
-        <v>432</v>
+        <v>326</v>
       </c>
       <c r="C22" t="s">
         <v>40</v>
@@ -2590,27 +2372,24 @@
         <v>105</v>
       </c>
       <c r="E22" t="s">
-        <v>170</v>
+        <v>433</v>
       </c>
       <c r="F22" t="s">
-        <v>432</v>
+        <v>326</v>
       </c>
       <c r="G22" t="s">
-        <v>251</v>
-      </c>
-      <c r="H22" t="s">
-        <v>303</v>
+        <v>208</v>
       </c>
       <c r="I22" t="s">
-        <v>368</v>
+        <v>262</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>485</v>
+        <v>379</v>
       </c>
       <c r="B23" t="s">
-        <v>433</v>
+        <v>327</v>
       </c>
       <c r="C23" t="s">
         <v>41</v>
@@ -2619,27 +2398,24 @@
         <v>106</v>
       </c>
       <c r="E23" t="s">
-        <v>171</v>
+        <v>434</v>
       </c>
       <c r="F23" t="s">
-        <v>433</v>
+        <v>327</v>
       </c>
       <c r="G23" t="s">
-        <v>252</v>
-      </c>
-      <c r="H23" t="s">
-        <v>304</v>
+        <v>209</v>
       </c>
       <c r="I23" t="s">
-        <v>369</v>
+        <v>263</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>486</v>
+        <v>380</v>
       </c>
       <c r="B24" t="s">
-        <v>434</v>
+        <v>328</v>
       </c>
       <c r="C24" t="s">
         <v>42</v>
@@ -2648,27 +2424,24 @@
         <v>107</v>
       </c>
       <c r="E24" t="s">
-        <v>172</v>
+        <v>435</v>
       </c>
       <c r="F24" t="s">
-        <v>434</v>
+        <v>328</v>
       </c>
       <c r="G24" t="s">
-        <v>253</v>
-      </c>
-      <c r="H24" t="s">
-        <v>305</v>
+        <v>210</v>
       </c>
       <c r="I24" t="s">
-        <v>370</v>
+        <v>264</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>487</v>
+        <v>381</v>
       </c>
       <c r="B25" t="s">
-        <v>435</v>
+        <v>329</v>
       </c>
       <c r="C25" t="s">
         <v>43</v>
@@ -2677,27 +2450,24 @@
         <v>108</v>
       </c>
       <c r="E25" t="s">
-        <v>173</v>
+        <v>436</v>
       </c>
       <c r="F25" t="s">
-        <v>435</v>
+        <v>329</v>
       </c>
       <c r="G25" t="s">
-        <v>254</v>
-      </c>
-      <c r="H25" t="s">
-        <v>306</v>
+        <v>211</v>
       </c>
       <c r="I25" t="s">
-        <v>371</v>
+        <v>265</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>488</v>
+        <v>382</v>
       </c>
       <c r="B26" t="s">
-        <v>436</v>
+        <v>330</v>
       </c>
       <c r="C26" t="s">
         <v>44</v>
@@ -2706,27 +2476,24 @@
         <v>109</v>
       </c>
       <c r="E26" t="s">
-        <v>174</v>
+        <v>465</v>
       </c>
       <c r="F26" t="s">
-        <v>436</v>
+        <v>330</v>
       </c>
       <c r="G26" t="s">
-        <v>254</v>
-      </c>
-      <c r="H26" t="s">
-        <v>307</v>
+        <v>211</v>
       </c>
       <c r="I26" t="s">
-        <v>372</v>
+        <v>266</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>489</v>
+        <v>383</v>
       </c>
       <c r="B27" t="s">
-        <v>437</v>
+        <v>331</v>
       </c>
       <c r="C27" t="s">
         <v>45</v>
@@ -2735,27 +2502,24 @@
         <v>110</v>
       </c>
       <c r="E27" t="s">
-        <v>175</v>
+        <v>437</v>
       </c>
       <c r="F27" t="s">
-        <v>437</v>
+        <v>331</v>
       </c>
       <c r="G27" t="s">
-        <v>255</v>
-      </c>
-      <c r="H27" t="s">
-        <v>308</v>
+        <v>212</v>
       </c>
       <c r="I27" t="s">
-        <v>373</v>
+        <v>267</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>490</v>
+        <v>384</v>
       </c>
       <c r="B28" t="s">
-        <v>438</v>
+        <v>332</v>
       </c>
       <c r="C28" t="s">
         <v>46</v>
@@ -2764,27 +2528,24 @@
         <v>111</v>
       </c>
       <c r="E28" t="s">
-        <v>176</v>
+        <v>438</v>
       </c>
       <c r="F28" t="s">
-        <v>438</v>
+        <v>332</v>
       </c>
       <c r="G28" t="s">
-        <v>256</v>
-      </c>
-      <c r="H28" t="s">
-        <v>309</v>
+        <v>213</v>
       </c>
       <c r="I28" t="s">
-        <v>374</v>
+        <v>268</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>491</v>
+        <v>385</v>
       </c>
       <c r="B29" t="s">
-        <v>439</v>
+        <v>333</v>
       </c>
       <c r="C29" t="s">
         <v>47</v>
@@ -2793,27 +2554,24 @@
         <v>112</v>
       </c>
       <c r="E29" t="s">
-        <v>177</v>
+        <v>466</v>
       </c>
       <c r="F29" t="s">
-        <v>439</v>
+        <v>333</v>
       </c>
       <c r="G29" t="s">
-        <v>256</v>
-      </c>
-      <c r="H29" t="s">
-        <v>310</v>
+        <v>213</v>
       </c>
       <c r="I29" t="s">
-        <v>375</v>
+        <v>269</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>492</v>
+        <v>386</v>
       </c>
       <c r="B30" t="s">
-        <v>440</v>
+        <v>334</v>
       </c>
       <c r="C30" t="s">
         <v>48</v>
@@ -2822,27 +2580,24 @@
         <v>113</v>
       </c>
       <c r="E30" t="s">
-        <v>178</v>
+        <v>467</v>
       </c>
       <c r="F30" t="s">
-        <v>440</v>
+        <v>334</v>
       </c>
       <c r="G30" t="s">
-        <v>256</v>
-      </c>
-      <c r="H30" t="s">
-        <v>311</v>
+        <v>213</v>
       </c>
       <c r="I30" t="s">
-        <v>376</v>
+        <v>270</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>493</v>
+        <v>387</v>
       </c>
       <c r="B31" t="s">
-        <v>441</v>
+        <v>335</v>
       </c>
       <c r="C31" t="s">
         <v>49</v>
@@ -2851,27 +2606,24 @@
         <v>114</v>
       </c>
       <c r="E31" t="s">
-        <v>179</v>
+        <v>439</v>
       </c>
       <c r="F31" t="s">
-        <v>441</v>
+        <v>335</v>
       </c>
       <c r="G31" t="s">
-        <v>257</v>
-      </c>
-      <c r="H31" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
       <c r="I31" t="s">
-        <v>377</v>
+        <v>271</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>494</v>
+        <v>388</v>
       </c>
       <c r="B32" t="s">
-        <v>442</v>
+        <v>336</v>
       </c>
       <c r="C32" t="s">
         <v>50</v>
@@ -2880,27 +2632,24 @@
         <v>115</v>
       </c>
       <c r="E32" t="s">
-        <v>180</v>
+        <v>440</v>
       </c>
       <c r="F32" t="s">
-        <v>442</v>
+        <v>336</v>
       </c>
       <c r="G32" t="s">
-        <v>258</v>
-      </c>
-      <c r="H32" t="s">
-        <v>313</v>
+        <v>215</v>
       </c>
       <c r="I32" t="s">
-        <v>378</v>
+        <v>272</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>495</v>
+        <v>389</v>
       </c>
       <c r="B33" t="s">
-        <v>443</v>
+        <v>337</v>
       </c>
       <c r="C33" t="s">
         <v>51</v>
@@ -2909,27 +2658,24 @@
         <v>116</v>
       </c>
       <c r="E33" t="s">
-        <v>181</v>
+        <v>441</v>
       </c>
       <c r="F33" t="s">
-        <v>443</v>
+        <v>337</v>
       </c>
       <c r="G33" t="s">
-        <v>259</v>
-      </c>
-      <c r="H33" t="s">
-        <v>314</v>
+        <v>216</v>
       </c>
       <c r="I33" t="s">
-        <v>379</v>
+        <v>273</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>496</v>
+        <v>390</v>
       </c>
       <c r="B34" t="s">
-        <v>182</v>
+        <v>156</v>
       </c>
       <c r="C34" t="s">
         <v>52</v>
@@ -2938,27 +2684,24 @@
         <v>117</v>
       </c>
       <c r="E34" t="s">
-        <v>182</v>
+        <v>442</v>
       </c>
       <c r="F34" t="s">
-        <v>221</v>
+        <v>178</v>
       </c>
       <c r="G34" t="s">
-        <v>260</v>
-      </c>
-      <c r="H34" t="s">
-        <v>315</v>
+        <v>217</v>
       </c>
       <c r="I34" t="s">
-        <v>380</v>
+        <v>274</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>497</v>
+        <v>391</v>
       </c>
       <c r="B35" t="s">
-        <v>444</v>
+        <v>338</v>
       </c>
       <c r="C35" t="s">
         <v>53</v>
@@ -2967,27 +2710,24 @@
         <v>118</v>
       </c>
       <c r="E35" t="s">
-        <v>183</v>
+        <v>443</v>
       </c>
       <c r="F35" t="s">
-        <v>444</v>
+        <v>338</v>
       </c>
       <c r="G35" t="s">
-        <v>261</v>
-      </c>
-      <c r="H35" t="s">
-        <v>316</v>
+        <v>218</v>
       </c>
       <c r="I35" t="s">
-        <v>381</v>
+        <v>275</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>498</v>
+        <v>392</v>
       </c>
       <c r="B36" t="s">
-        <v>445</v>
+        <v>339</v>
       </c>
       <c r="C36" t="s">
         <v>54</v>
@@ -2996,27 +2736,24 @@
         <v>119</v>
       </c>
       <c r="E36" t="s">
-        <v>184</v>
+        <v>444</v>
       </c>
       <c r="F36" t="s">
-        <v>445</v>
+        <v>339</v>
       </c>
       <c r="G36" t="s">
-        <v>262</v>
-      </c>
-      <c r="H36" t="s">
-        <v>317</v>
+        <v>219</v>
       </c>
       <c r="I36" t="s">
-        <v>382</v>
+        <v>276</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>499</v>
+        <v>393</v>
       </c>
       <c r="B37" t="s">
-        <v>446</v>
+        <v>340</v>
       </c>
       <c r="C37" t="s">
         <v>55</v>
@@ -3025,27 +2762,24 @@
         <v>120</v>
       </c>
       <c r="E37" t="s">
-        <v>185</v>
+        <v>445</v>
       </c>
       <c r="F37" t="s">
-        <v>446</v>
+        <v>340</v>
       </c>
       <c r="G37" t="s">
-        <v>263</v>
-      </c>
-      <c r="H37" t="s">
-        <v>318</v>
+        <v>220</v>
       </c>
       <c r="I37" t="s">
-        <v>383</v>
+        <v>277</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>500</v>
+        <v>394</v>
       </c>
       <c r="B38" t="s">
-        <v>447</v>
+        <v>341</v>
       </c>
       <c r="C38" t="s">
         <v>56</v>
@@ -3054,27 +2788,24 @@
         <v>121</v>
       </c>
       <c r="E38" t="s">
-        <v>186</v>
+        <v>446</v>
       </c>
       <c r="F38" t="s">
-        <v>447</v>
+        <v>341</v>
       </c>
       <c r="G38" t="s">
-        <v>264</v>
-      </c>
-      <c r="H38" t="s">
-        <v>319</v>
+        <v>221</v>
       </c>
       <c r="I38" t="s">
-        <v>384</v>
+        <v>278</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>501</v>
+        <v>395</v>
       </c>
       <c r="B39" t="s">
-        <v>448</v>
+        <v>342</v>
       </c>
       <c r="C39" t="s">
         <v>57</v>
@@ -3083,27 +2814,24 @@
         <v>122</v>
       </c>
       <c r="E39" t="s">
-        <v>187</v>
+        <v>447</v>
       </c>
       <c r="F39" t="s">
-        <v>448</v>
+        <v>342</v>
       </c>
       <c r="G39" t="s">
-        <v>265</v>
-      </c>
-      <c r="H39" t="s">
-        <v>320</v>
+        <v>222</v>
       </c>
       <c r="I39" t="s">
-        <v>385</v>
+        <v>279</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>502</v>
+        <v>396</v>
       </c>
       <c r="B40" t="s">
-        <v>449</v>
+        <v>343</v>
       </c>
       <c r="C40" t="s">
         <v>58</v>
@@ -3112,27 +2840,24 @@
         <v>123</v>
       </c>
       <c r="E40" t="s">
-        <v>188</v>
+        <v>448</v>
       </c>
       <c r="F40" t="s">
-        <v>449</v>
+        <v>343</v>
       </c>
       <c r="G40" t="s">
-        <v>265</v>
-      </c>
-      <c r="H40" t="s">
-        <v>321</v>
+        <v>222</v>
       </c>
       <c r="I40" t="s">
-        <v>386</v>
+        <v>280</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>503</v>
+        <v>397</v>
       </c>
       <c r="B41" t="s">
-        <v>450</v>
+        <v>344</v>
       </c>
       <c r="C41" t="s">
         <v>59</v>
@@ -3141,27 +2866,24 @@
         <v>124</v>
       </c>
       <c r="E41" t="s">
-        <v>189</v>
+        <v>449</v>
       </c>
       <c r="F41" t="s">
-        <v>450</v>
+        <v>344</v>
       </c>
       <c r="G41" t="s">
-        <v>265</v>
-      </c>
-      <c r="H41" t="s">
-        <v>322</v>
+        <v>222</v>
       </c>
       <c r="I41" t="s">
-        <v>387</v>
+        <v>281</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>504</v>
+        <v>398</v>
       </c>
       <c r="B42" t="s">
-        <v>451</v>
+        <v>345</v>
       </c>
       <c r="C42" t="s">
         <v>60</v>
@@ -3170,27 +2892,24 @@
         <v>125</v>
       </c>
       <c r="E42" t="s">
-        <v>190</v>
+        <v>450</v>
       </c>
       <c r="F42" t="s">
-        <v>451</v>
+        <v>345</v>
       </c>
       <c r="G42" t="s">
-        <v>266</v>
-      </c>
-      <c r="H42" t="s">
-        <v>323</v>
+        <v>223</v>
       </c>
       <c r="I42" t="s">
-        <v>388</v>
+        <v>282</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B43" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="C43" t="s">
         <v>61</v>
@@ -3199,27 +2918,24 @@
         <v>126</v>
       </c>
       <c r="E43" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="F43" t="s">
-        <v>222</v>
+        <v>179</v>
       </c>
       <c r="G43" t="s">
-        <v>267</v>
-      </c>
-      <c r="H43" t="s">
-        <v>324</v>
+        <v>224</v>
       </c>
       <c r="I43" t="s">
-        <v>389</v>
+        <v>283</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>505</v>
+        <v>399</v>
       </c>
       <c r="B44" t="s">
-        <v>452</v>
+        <v>346</v>
       </c>
       <c r="C44" t="s">
         <v>62</v>
@@ -3228,27 +2944,24 @@
         <v>127</v>
       </c>
       <c r="E44" t="s">
-        <v>192</v>
+        <v>451</v>
       </c>
       <c r="F44" t="s">
-        <v>452</v>
+        <v>346</v>
       </c>
       <c r="G44" t="s">
-        <v>268</v>
-      </c>
-      <c r="H44" t="s">
-        <v>325</v>
+        <v>225</v>
       </c>
       <c r="I44" t="s">
-        <v>390</v>
+        <v>284</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>506</v>
+        <v>400</v>
       </c>
       <c r="B45" t="s">
-        <v>193</v>
+        <v>158</v>
       </c>
       <c r="C45" t="s">
         <v>63</v>
@@ -3257,27 +2970,24 @@
         <v>128</v>
       </c>
       <c r="E45" t="s">
-        <v>193</v>
+        <v>400</v>
       </c>
       <c r="F45" t="s">
-        <v>223</v>
+        <v>180</v>
       </c>
       <c r="G45" t="s">
-        <v>269</v>
-      </c>
-      <c r="H45" t="s">
-        <v>326</v>
+        <v>226</v>
       </c>
       <c r="I45" t="s">
-        <v>391</v>
+        <v>285</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>507</v>
+        <v>401</v>
       </c>
       <c r="B46" t="s">
-        <v>194</v>
+        <v>159</v>
       </c>
       <c r="C46" t="s">
         <v>64</v>
@@ -3286,27 +2996,24 @@
         <v>129</v>
       </c>
       <c r="E46" t="s">
-        <v>194</v>
+        <v>401</v>
       </c>
       <c r="F46" t="s">
-        <v>224</v>
+        <v>181</v>
       </c>
       <c r="G46" t="s">
-        <v>269</v>
-      </c>
-      <c r="H46" t="s">
-        <v>327</v>
+        <v>226</v>
       </c>
       <c r="I46" t="s">
-        <v>392</v>
+        <v>286</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>508</v>
+        <v>402</v>
       </c>
       <c r="B47" t="s">
-        <v>195</v>
+        <v>160</v>
       </c>
       <c r="C47" t="s">
         <v>65</v>
@@ -3315,27 +3022,24 @@
         <v>130</v>
       </c>
       <c r="E47" t="s">
-        <v>195</v>
+        <v>402</v>
       </c>
       <c r="F47" t="s">
-        <v>225</v>
+        <v>182</v>
       </c>
       <c r="G47" t="s">
-        <v>269</v>
-      </c>
-      <c r="H47" t="s">
-        <v>328</v>
+        <v>226</v>
       </c>
       <c r="I47" t="s">
-        <v>393</v>
+        <v>287</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>509</v>
+        <v>403</v>
       </c>
       <c r="B48" t="s">
-        <v>453</v>
+        <v>347</v>
       </c>
       <c r="C48" t="s">
         <v>66</v>
@@ -3344,27 +3048,24 @@
         <v>131</v>
       </c>
       <c r="E48" t="s">
-        <v>196</v>
+        <v>452</v>
       </c>
       <c r="F48" t="s">
-        <v>453</v>
+        <v>347</v>
       </c>
       <c r="G48" t="s">
-        <v>270</v>
-      </c>
-      <c r="H48" t="s">
-        <v>329</v>
+        <v>227</v>
       </c>
       <c r="I48" t="s">
-        <v>394</v>
+        <v>288</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>510</v>
+        <v>404</v>
       </c>
       <c r="B49" t="s">
-        <v>454</v>
+        <v>348</v>
       </c>
       <c r="C49" t="s">
         <v>67</v>
@@ -3373,27 +3074,24 @@
         <v>132</v>
       </c>
       <c r="E49" t="s">
-        <v>197</v>
+        <v>453</v>
       </c>
       <c r="F49" t="s">
-        <v>454</v>
+        <v>348</v>
       </c>
       <c r="G49" t="s">
-        <v>270</v>
-      </c>
-      <c r="H49" t="s">
-        <v>330</v>
+        <v>227</v>
       </c>
       <c r="I49" t="s">
-        <v>395</v>
+        <v>289</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>511</v>
+        <v>405</v>
       </c>
       <c r="B50" t="s">
-        <v>198</v>
+        <v>161</v>
       </c>
       <c r="C50" t="s">
         <v>68</v>
@@ -3402,27 +3100,24 @@
         <v>133</v>
       </c>
       <c r="E50" t="s">
-        <v>198</v>
+        <v>405</v>
       </c>
       <c r="F50" t="s">
-        <v>226</v>
+        <v>183</v>
       </c>
       <c r="G50" t="s">
-        <v>270</v>
-      </c>
-      <c r="H50" t="s">
-        <v>331</v>
+        <v>227</v>
       </c>
       <c r="I50" t="s">
-        <v>396</v>
+        <v>290</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>512</v>
+        <v>406</v>
       </c>
       <c r="B51" t="s">
-        <v>199</v>
+        <v>162</v>
       </c>
       <c r="C51" t="s">
         <v>69</v>
@@ -3431,27 +3126,24 @@
         <v>134</v>
       </c>
       <c r="E51" t="s">
-        <v>199</v>
+        <v>406</v>
       </c>
       <c r="F51" t="s">
+        <v>184</v>
+      </c>
+      <c r="G51" t="s">
         <v>227</v>
       </c>
-      <c r="G51" t="s">
-        <v>270</v>
-      </c>
-      <c r="H51" t="s">
-        <v>332</v>
-      </c>
       <c r="I51" t="s">
-        <v>397</v>
+        <v>291</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>513</v>
+        <v>407</v>
       </c>
       <c r="B52" t="s">
-        <v>455</v>
+        <v>349</v>
       </c>
       <c r="C52" t="s">
         <v>70</v>
@@ -3460,27 +3152,24 @@
         <v>135</v>
       </c>
       <c r="E52" t="s">
-        <v>200</v>
+        <v>454</v>
       </c>
       <c r="F52" t="s">
-        <v>455</v>
+        <v>349</v>
       </c>
       <c r="G52" t="s">
-        <v>270</v>
-      </c>
-      <c r="H52" t="s">
-        <v>333</v>
+        <v>227</v>
       </c>
       <c r="I52" t="s">
-        <v>398</v>
+        <v>292</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>514</v>
+        <v>408</v>
       </c>
       <c r="B53" t="s">
-        <v>201</v>
+        <v>163</v>
       </c>
       <c r="C53" t="s">
         <v>71</v>
@@ -3489,27 +3178,24 @@
         <v>136</v>
       </c>
       <c r="E53" t="s">
-        <v>201</v>
+        <v>408</v>
       </c>
       <c r="F53" t="s">
-        <v>228</v>
+        <v>185</v>
       </c>
       <c r="G53" t="s">
-        <v>270</v>
-      </c>
-      <c r="H53" t="s">
-        <v>334</v>
+        <v>227</v>
       </c>
       <c r="I53" t="s">
-        <v>399</v>
+        <v>293</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>515</v>
+        <v>409</v>
       </c>
       <c r="B54" t="s">
-        <v>202</v>
+        <v>164</v>
       </c>
       <c r="C54" t="s">
         <v>72</v>
@@ -3518,27 +3204,24 @@
         <v>137</v>
       </c>
       <c r="E54" t="s">
-        <v>202</v>
+        <v>409</v>
       </c>
       <c r="F54" t="s">
-        <v>229</v>
+        <v>186</v>
       </c>
       <c r="G54" t="s">
-        <v>270</v>
-      </c>
-      <c r="H54" t="s">
-        <v>335</v>
+        <v>227</v>
       </c>
       <c r="I54" t="s">
-        <v>400</v>
+        <v>294</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>516</v>
+        <v>410</v>
       </c>
       <c r="B55" t="s">
-        <v>456</v>
+        <v>350</v>
       </c>
       <c r="C55" t="s">
         <v>73</v>
@@ -3547,27 +3230,24 @@
         <v>138</v>
       </c>
       <c r="E55" t="s">
-        <v>203</v>
+        <v>455</v>
       </c>
       <c r="F55" t="s">
-        <v>456</v>
+        <v>350</v>
       </c>
       <c r="G55" t="s">
-        <v>271</v>
-      </c>
-      <c r="H55" t="s">
-        <v>336</v>
+        <v>228</v>
       </c>
       <c r="I55" t="s">
-        <v>401</v>
+        <v>295</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>517</v>
+        <v>411</v>
       </c>
       <c r="B56" t="s">
-        <v>457</v>
+        <v>351</v>
       </c>
       <c r="C56" t="s">
         <v>74</v>
@@ -3576,27 +3256,24 @@
         <v>139</v>
       </c>
       <c r="E56" t="s">
-        <v>204</v>
+        <v>456</v>
       </c>
       <c r="F56" t="s">
-        <v>457</v>
+        <v>351</v>
       </c>
       <c r="G56" t="s">
-        <v>272</v>
-      </c>
-      <c r="H56" t="s">
-        <v>337</v>
+        <v>229</v>
       </c>
       <c r="I56" t="s">
-        <v>402</v>
+        <v>296</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>518</v>
+        <v>412</v>
       </c>
       <c r="B57" t="s">
-        <v>205</v>
+        <v>165</v>
       </c>
       <c r="C57" t="s">
         <v>75</v>
@@ -3605,27 +3282,24 @@
         <v>140</v>
       </c>
       <c r="E57" t="s">
-        <v>205</v>
+        <v>412</v>
       </c>
       <c r="F57" t="s">
+        <v>187</v>
+      </c>
+      <c r="G57" t="s">
         <v>230</v>
       </c>
-      <c r="G57" t="s">
-        <v>273</v>
-      </c>
-      <c r="H57" t="s">
-        <v>338</v>
-      </c>
       <c r="I57" t="s">
-        <v>403</v>
+        <v>297</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>522</v>
+        <v>416</v>
       </c>
       <c r="B58" t="s">
-        <v>523</v>
+        <v>417</v>
       </c>
       <c r="C58" t="s">
         <v>76</v>
@@ -3634,27 +3308,24 @@
         <v>141</v>
       </c>
       <c r="E58" t="s">
-        <v>206</v>
+        <v>457</v>
       </c>
       <c r="F58" t="s">
-        <v>461</v>
+        <v>355</v>
       </c>
       <c r="G58" t="s">
-        <v>274</v>
-      </c>
-      <c r="H58" t="s">
-        <v>339</v>
+        <v>231</v>
       </c>
       <c r="I58" t="s">
-        <v>404</v>
+        <v>298</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>207</v>
+        <v>166</v>
       </c>
       <c r="B59" t="s">
-        <v>458</v>
+        <v>352</v>
       </c>
       <c r="C59" t="s">
         <v>77</v>
@@ -3663,27 +3334,24 @@
         <v>142</v>
       </c>
       <c r="E59" t="s">
-        <v>207</v>
+        <v>458</v>
       </c>
       <c r="F59" t="s">
-        <v>458</v>
+        <v>352</v>
       </c>
       <c r="G59" t="s">
-        <v>275</v>
-      </c>
-      <c r="H59" t="s">
-        <v>340</v>
+        <v>232</v>
       </c>
       <c r="I59" t="s">
-        <v>405</v>
+        <v>299</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>208</v>
+        <v>167</v>
       </c>
       <c r="B60" t="s">
-        <v>462</v>
+        <v>356</v>
       </c>
       <c r="C60" t="s">
         <v>78</v>
@@ -3692,27 +3360,24 @@
         <v>143</v>
       </c>
       <c r="E60" t="s">
-        <v>208</v>
+        <v>459</v>
       </c>
       <c r="F60" t="s">
-        <v>462</v>
+        <v>356</v>
       </c>
       <c r="G60" t="s">
-        <v>276</v>
-      </c>
-      <c r="H60" t="s">
-        <v>341</v>
+        <v>233</v>
       </c>
       <c r="I60" t="s">
-        <v>406</v>
+        <v>300</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>209</v>
+        <v>168</v>
       </c>
       <c r="B61" t="s">
-        <v>459</v>
+        <v>353</v>
       </c>
       <c r="C61" t="s">
         <v>79</v>
@@ -3721,27 +3386,24 @@
         <v>144</v>
       </c>
       <c r="E61" t="s">
-        <v>209</v>
+        <v>460</v>
       </c>
       <c r="F61" t="s">
-        <v>459</v>
+        <v>353</v>
       </c>
       <c r="G61" t="s">
-        <v>277</v>
-      </c>
-      <c r="H61" t="s">
-        <v>342</v>
+        <v>234</v>
       </c>
       <c r="I61" t="s">
-        <v>407</v>
+        <v>301</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>521</v>
+        <v>415</v>
       </c>
       <c r="B62" t="s">
-        <v>524</v>
+        <v>418</v>
       </c>
       <c r="C62" t="s">
         <v>80</v>
@@ -3750,27 +3412,24 @@
         <v>145</v>
       </c>
       <c r="E62" t="s">
-        <v>210</v>
+        <v>461</v>
       </c>
       <c r="F62" t="s">
-        <v>463</v>
+        <v>357</v>
       </c>
       <c r="G62" t="s">
-        <v>278</v>
-      </c>
-      <c r="H62" t="s">
-        <v>343</v>
+        <v>235</v>
       </c>
       <c r="I62" t="s">
-        <v>408</v>
+        <v>302</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>211</v>
+        <v>169</v>
       </c>
       <c r="B63" t="s">
-        <v>460</v>
+        <v>354</v>
       </c>
       <c r="C63" t="s">
         <v>81</v>
@@ -3779,27 +3438,24 @@
         <v>146</v>
       </c>
       <c r="E63" t="s">
-        <v>211</v>
+        <v>462</v>
       </c>
       <c r="F63" t="s">
-        <v>460</v>
+        <v>354</v>
       </c>
       <c r="G63" t="s">
-        <v>279</v>
-      </c>
-      <c r="H63" t="s">
-        <v>344</v>
+        <v>236</v>
       </c>
       <c r="I63" t="s">
-        <v>409</v>
+        <v>303</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>520</v>
+        <v>414</v>
       </c>
       <c r="B64" t="s">
-        <v>519</v>
+        <v>413</v>
       </c>
       <c r="C64" t="s">
         <v>82</v>
@@ -3808,27 +3464,24 @@
         <v>147</v>
       </c>
       <c r="E64" t="s">
-        <v>212</v>
+        <v>463</v>
       </c>
       <c r="F64" t="s">
-        <v>464</v>
+        <v>358</v>
       </c>
       <c r="G64" t="s">
-        <v>280</v>
-      </c>
-      <c r="H64" t="s">
-        <v>345</v>
+        <v>237</v>
       </c>
       <c r="I64" t="s">
-        <v>410</v>
+        <v>304</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>213</v>
+        <v>170</v>
       </c>
       <c r="B65" t="s">
-        <v>465</v>
+        <v>359</v>
       </c>
       <c r="C65" t="s">
         <v>83</v>
@@ -3837,19 +3490,16 @@
         <v>148</v>
       </c>
       <c r="E65" t="s">
-        <v>213</v>
+        <v>464</v>
       </c>
       <c r="F65" t="s">
-        <v>465</v>
+        <v>359</v>
       </c>
       <c r="G65" t="s">
-        <v>281</v>
-      </c>
-      <c r="H65" t="s">
-        <v>346</v>
+        <v>238</v>
       </c>
       <c r="I65" t="s">
-        <v>411</v>
+        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -3946,24 +3596,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>412</v>
+        <v>306</v>
       </c>
       <c r="B1" t="s">
-        <v>414</v>
+        <v>308</v>
       </c>
       <c r="C1" t="s">
-        <v>416</v>
+        <v>310</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>413</v>
+        <v>307</v>
       </c>
       <c r="B2" t="s">
-        <v>415</v>
+        <v>309</v>
       </c>
       <c r="C2" t="s">
-        <v>417</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>
